--- a/common/src/main/resources/test.xlsx
+++ b/common/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,10 +78,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,31 +458,37 @@
   <dimension ref="B5:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F11" sqref="F11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -496,9 +509,10 @@
       <c r="G29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B11:C13"/>
     <mergeCell ref="F28:G29"/>
+    <mergeCell ref="F11:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
